--- a/medicine/Enfance/Fête_du_livre_jeunesse_de_Villeurbanne/Fête_du_livre_jeunesse_de_Villeurbanne.xlsx
+++ b/medicine/Enfance/Fête_du_livre_jeunesse_de_Villeurbanne/Fête_du_livre_jeunesse_de_Villeurbanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAte_du_livre_jeunesse_de_Villeurbanne</t>
+          <t>Fête_du_livre_jeunesse_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fête du livre Jeunesse de Villeurbanne est une manifestation de littérature jeunesse, qui se déroule chaque printemps à Villeurbanne. Elle est une manifestation faisant partie de la région comme le Lyon BD festival, la Fête du livre de Bron, Quais du Polar, les Assises Internationales du Roman, la Fête du livre de Saint-Étienne et le Printemps du livre de Grenoble.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAte_du_livre_jeunesse_de_Villeurbanne</t>
+          <t>Fête_du_livre_jeunesse_de_Villeurbanne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,52 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Créée en 2000 par Gérard Picot[1],[2], la Fête du livre Jeunesse de Villeurbanne réunit chaque année, depuis 2015[3], plus de 30 000 visiteurs[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 2000 par Gérard Picot la Fête du livre Jeunesse de Villeurbanne réunit chaque année, depuis 2015, plus de 30 000 visiteurs,.
 Autour d'un thème différent à chaque édition, et en présence d'un auteur et/ou illustrateur invité d'honneur, la Fête propose des rencontres littéraires, des spectacles de rue, des représentations théâtrales, des expositions et des ateliers artistiques.
-L'édition 2018, intitulée « Bienvenue ! », réunit 130 auteurs illustrateurs et intervenants[4].
-En 2019, le thème « La Fête » est choisi, pour la 20ème édition de l'événement[2],[5].
+L'édition 2018, intitulée « Bienvenue ! », réunit 130 auteurs illustrateurs et intervenants.
+En 2019, le thème « La Fête » est choisi, pour la 20ème édition de l'événement,.
 En 2020, c'est avec le thème « Même pas peur ? » que la Fête du livre Jeunesse de Villeurbanne revient.
-Listes des éditions
-2000 : 1re édition
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fête_du_livre_jeunesse_de_Villeurbanne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%AAte_du_livre_jeunesse_de_Villeurbanne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Listes des éditions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2000 : 1re édition
 2001 : L'Odyssée, le voyage imaginaire - Invitée d'honneur : Nathalie Novi
 2002 : Gentils et Méchants - Invité d'honneur : Lionel Le Néouanic (du collectif d'artistes Les Chats Pelés)
 2003 : L'Autre - Invités d'honneur : Fred Bernard et François Roca
@@ -530,16 +579,16 @@
 2007 : Je me souviens... de demain - Invités d'honneur : Katy Couprie et Antonin Louchard
 2008 : Et toi, ton toit ? - Invitée d'honneur : Cécile Gambini
 2009 : États de Fête - Invité d'honneur : Christian Voltz
-2010 : Résister[6] - Invité d'honneur : Zaü
+2010 : Résister - Invité d'honneur : Zaü
 2011 : Filles &amp; garçons naissent égaux, certains plus que d'autres - Invitée d'honneur : Carole Chaix
 2012 : Couleurs - Invité d'honneur : Hervé Tullet
-2013 : Mouvements[7] - Invités d'honneur : Anouck Boisrobert et Louis Rigaud
-2014 : Soyons fous[8] - Invité d'honneur : Gilbert Legrand
-2015 : Cap ou pas Cap ?[3],[9] - Invitée d'honneur : Delphine Perret
+2013 : Mouvements - Invités d'honneur : Anouck Boisrobert et Louis Rigaud
+2014 : Soyons fous - Invité d'honneur : Gilbert Legrand
+2015 : Cap ou pas Cap ?, - Invitée d'honneur : Delphine Perret
 2016 : Je(u) en construction - Invitée d'honneur : Claire Cantais
 2017 : On va se faire entendre - Invité d'honneur : Gaëtan Dorémus
-2018 : Bienvenue ![4],[10] - Invitée d'honneur : Marie Caudry
-2019 : La fête ![2] - Invitées d'honneur : Claire Dé, Claudine Desmarteau[5]
+2018 : Bienvenue !, - Invitée d'honneur : Marie Caudry
+2019 : La fête ! - Invitées d'honneur : Claire Dé, Claudine Desmarteau
 2020 : Même pas peur ? - Invité d'honneur : Adrien Albert
 2021 : Pas si bête - Invité d'honneur : Antoine Guillopé
 2022 : Grandir - Invitée d'honneur : Magali Le Huche
